--- a/template_societes.xlsx
+++ b/template_societes.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sociétés" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,17 +27,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Segoe UI"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Segoe UI"/>
+      <i val="1"/>
+      <color rgb="00999999"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <b val="1"/>
+      <color rgb="001F4E79"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <b val="1"/>
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -45,12 +63,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00404040"/>
+        <fgColor rgb="004A4A4A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="001F4E79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002E5A1A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0F0F0"/>
       </patternFill>
     </fill>
   </fills>
@@ -80,15 +108,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -163,6 +205,41 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>GLEIF Matcher</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Numéro client interne (optionnel)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Numéro RCS / registre de commerce</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Raison sociale de l'entité</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Pays (français ou anglais, ex: France, FR)</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>LEI déjà présent en base (optionnel) — laissez vide si inconnu</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,24 +531,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="35" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="26" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="28" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>N° Client</t>
@@ -492,111 +568,248 @@
           <t>Pays</t>
         </is>
       </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>LEI_Existant</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr"/>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>123 456 789</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>SOCIETE GENERALE SA</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr"/>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>552 032 534</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>BNP PARIBAS</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr"/>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>123.456.790</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>BNP PARIBAS</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>france</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr"/>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>123456791</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>AXA SA</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>RCS Paris 999999999</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>ENTREPRISE INCONNUE SARL</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr"/>
-      <c r="B6" s="3" t="inlineStr"/>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>LVMH Moet Hennessy</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>999.000.001</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>DEUTSCHE BANK AG</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Allemagne</t>
-        </is>
-      </c>
-    </row>
+      <c r="E2" s="4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="72" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>GLEIF LEI Matcher — Guide d'utilisation du fichier d'entrée</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="32" customHeight="1">
+      <c r="A2" s="6" t="inlineStr"/>
+    </row>
+    <row r="3" ht="32" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>Colonne</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>Obligatoire ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="32" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>N° Client</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>Identifiant interne client. Non utilisé par le matcher.</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="32" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RCS</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>Numéro de registre de commerce (SIREN, Handelsregister…).
+Ex: 552032534 ou 552 032 534 ou RCS Paris 552 032 534.</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>Recommandé</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="32" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>NomEntreprise</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>Raison sociale complète de l'entité.</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="32" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>Pays du siège. Accepté en français ou anglais.
+Ex: France, FR, Germany, Allemagne.</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="32" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>LEI_Existant</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>Code LEI à 20 caractères déjà présent dans votre base client.
+• Si renseigné → le matcher valide le LEI contre GLEIF et signale les divergences.
+• Si vide     → le matcher recherche le LEI (par RCS puis par nom/pays).</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>Non (optionnel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="32" customHeight="1">
+      <c r="A9" s="6" t="inlineStr"/>
+    </row>
+    <row r="10" ht="32" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>CODES COULEUR DU FICHIER DE SORTIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="32" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Vert</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>Correspondance exacte par RCS, ou LEI existant validé par GLEIF.</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12" ht="32" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Jaune</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>Correspondance approximative par nom+pays.</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13" ht="32" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>LEI existant retrouvé dans GLEIF mais divergence détectée (RCS/nom/pays) — à vérifier.</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14" ht="32" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Bleu clair</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>LEI existant introuvable dans la base GLEIF.</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15" ht="32" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Rouge</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>Aucune correspondance trouvée.</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16" ht="32" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/template_societes.xlsx
+++ b/template_societes.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sociétés" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Societes" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,44 +27,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="Segoe UI"/>
-      <i val="1"/>
-      <color rgb="00999999"/>
-      <sz val="10"/>
+      <name val="Calibri"/>
+      <sz val="11"/>
     </font>
     <font>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="001F4E79"/>
-      <sz val="13"/>
-    </font>
-    <font>
-      <name val="Segoe UI"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Segoe UI"/>
-      <b val="1"/>
-      <sz val="10"/>
+      <sz val="11"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004A4A4A"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -74,11 +57,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="002E5A1A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F0F0F0"/>
       </patternFill>
     </fill>
   </fills>
@@ -108,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -116,19 +94,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -205,41 +177,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>GLEIF Matcher</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <t>Numéro client interne (optionnel)</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <t>Numéro RCS / registre de commerce</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <t>Raison sociale de l'entité</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <t>Pays (français ou anglais, ex: France, FR)</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <t>LEI déjà présent en base (optionnel) — laissez vide si inconnu</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -540,62 +477,156 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="32" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="26" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
+    <row r="1" ht="36" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>N° Client</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
+          <t>NumeroClient</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>RCS</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>NomEntreprise</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Pays</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>LEI_Existant</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>LEI_DateValidite</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr"/>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>552 032 534</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>BNP PARIBAS</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr"/>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>C00001</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>552032534</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>TOTAL ENERGIES SE</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>529900ODI3047E2LFU29</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>15-01-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>C00002</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>1513210151</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>ENTREPRISE EXEMPLE SA</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>C00003</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>ACME CORPORATION GmbH</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>AAAAA0123456789ABCDE</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>30-06-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>C00004</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>SOCIÉTÉ TEST SAS</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -605,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,203 +644,243 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
     <col width="72" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>GLEIF LEI Matcher — Guide d'utilisation du fichier d'entrée</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="6" t="inlineStr"/>
-    </row>
-    <row r="3" ht="32" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Colonne</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Obligatoire ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="32" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>N° Client</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>Identifiant interne client. Non utilisé par le matcher.</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>Non</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="32" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Description et format attendu</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>NumeroClient</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Identifiant interne de la société dans votre référentiel (texte libre)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>RCS</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>Numéro de registre de commerce (SIREN, Handelsregister…).
-Ex: 552032534 ou 552 032 534 ou RCS Paris 552 032 534.</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Recommandé</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="32" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Numéro de registre : SIREN/SIRET (FR), HRB (DE), numéro chambre de commerce…
+Préfixe 'RCS Ville' accepté et supprimé automatiquement</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>NomEntreprise</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>Raison sociale complète de l'entité.</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>Oui</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="32" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Nom légal de la société — utilisé pour le matching approché si le RCS échoue</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Pays</t>
         </is>
       </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>Pays du siège. Accepté en français ou anglais.
-Ex: France, FR, Germany, Allemagne.</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>Oui</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="32" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Pays de domiciliation — ISO alpha-2 (FR, DE, LU…) ou libellé (France, Allemagne…)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="45" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>LEI_Existant</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>Code LEI à 20 caractères déjà présent dans votre base client.
-• Si renseigné → le matcher valide le LEI contre GLEIF et signale les divergences.
-• Si vide     → le matcher recherche le LEI (par RCS puis par nom/pays).</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>Non (optionnel)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="32" customHeight="1">
-      <c r="A9" s="6" t="inlineStr"/>
-    </row>
-    <row r="10" ht="32" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>CODES COULEUR DU FICHIER DE SORTIE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="32" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Vert</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>Correspondance exacte par RCS, ou LEI existant validé par GLEIF.</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr"/>
-    </row>
-    <row r="12" ht="32" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>[OPTIONNEL] LEI présent dans votre base. Si renseigné :
+  • Validation directe contre GLEIF
+  • Détection de discordance (LEI modifié ou erroné)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="45" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>LEI_DateValidite</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>[OPTIONNEL] Date de validité du LEI dans votre base, format dd-mm-yyyy
+  • Comparée avec la date GLEIF (renewal_date)
+  • Écart signalé dans la colonne LEI_Discordance du fichier de sortie</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="5" t="inlineStr"/>
+      <c r="B8" s="5" t="inlineStr"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Logique de traitement</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr"/>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>1. Ligne avec LEI_Existant renseigné</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>→ Validation du LEI contre GLEIF
+   Résultat : LEI Valide / LEI Discordant / Non trouvé (LEI invalide)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2. Ligne sans LEI_Existant</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>→ Recherche par RCS exact, puis RCS approché (contenance),
+   puis nom + pays approché
+   Résultat : Exact – RCS / Approx – RCS / Approx – Nom/Pays / Non trouvé</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="5" t="inlineStr"/>
+      <c r="B12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13" ht="90" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Colonne LEI_Discordance (sortie)</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Signale TOUS les écarts DQ pour chaque ligne avec correspondance :
+  • LEI manquant → valeur GLEIF proposée
+  • RCS manquant ou différent → valeur GLEIF proposée
+  • Nom légal différent (similarité &lt; seuil)
+  • Date LEI manquante ou différente → valeur GLEIF proposée
+Applicable à tous les types de correspondance, pas uniquement LEI Discordant</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="5" t="inlineStr"/>
+      <c r="B14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Légende couleurs (fichier de sortie)</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>Vert foncé</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>LEI validé (cohérent) ou correspondance exacte par RCS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Vert clair</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>RCS approché — caractère manquant dans votre référentiel (ex: zéro de tête)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>Jaune</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>Correspondance approximative par nom+pays.</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr"/>
-    </row>
-    <row r="13" ht="32" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Correspondance approchée nom + pays</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>Orange</t>
         </is>
       </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>LEI existant retrouvé dans GLEIF mais divergence détectée (RCS/nom/pays) — à vérifier.</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="inlineStr"/>
-    </row>
-    <row r="14" ht="32" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>LEI Discordant — erreur LEI dans votre base</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>Bleu clair</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>LEI existant introuvable dans la base GLEIF.</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr"/>
-    </row>
-    <row r="15" ht="32" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>LEI invalide — introuvable par LEI, RCS et nom</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>Rouge</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>Aucune correspondance trouvée.</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr"/>
-    </row>
-    <row r="16" ht="32" customHeight="1"/>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Aucune correspondance</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
